--- a/data/outputs/能源化工元源数据文件/3（2）APPLIED BIOCHEMISTRY AND BIOTECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件/3（2）APPLIED BIOCHEMISTRY AND BIOTECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ110"/>
+  <dimension ref="A1:BR110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1337,6 +1344,9 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="n">
+        <v>2929761</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1558,9 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="n">
+        <v>4681526</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1759,6 +1772,9 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="n">
+        <v>2936607</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +1994,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2185,6 +2202,9 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="n">
+        <v>2955792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2396,6 +2416,9 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="n">
+        <v>2958473</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2615,6 +2638,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2834,6 +2858,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3049,6 +3074,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3256,6 +3282,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3475,6 +3502,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3690,6 +3718,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3901,6 +3930,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4116,6 +4146,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4335,6 +4366,9 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="n">
+        <v>4523471</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4554,6 +4588,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4769,6 +4804,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4980,6 +5016,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5191,6 +5228,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5402,6 +5440,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5617,6 +5656,9 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="n">
+        <v>2714556</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5820,6 +5862,9 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="n">
+        <v>4524391</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6035,6 +6080,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6246,6 +6292,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6449,6 +6496,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6664,6 +6712,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6875,6 +6924,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7078,6 +7128,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7289,6 +7340,9 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="n">
+        <v>2739359</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7508,6 +7562,9 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="n">
+        <v>2743835</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7719,6 +7776,9 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="n">
+        <v>2764301</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7934,6 +7994,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8137,6 +8198,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8340,6 +8402,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8551,6 +8614,9 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="n">
+        <v>4525286</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8762,6 +8828,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8973,6 +9040,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9184,6 +9252,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9395,6 +9464,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9606,6 +9676,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9817,6 +9888,9 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="n">
+        <v>4523924</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10028,6 +10102,9 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="n">
+        <v>2792035</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10231,6 +10308,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10450,6 +10528,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10661,6 +10740,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10880,6 +10960,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11095,6 +11176,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11314,6 +11396,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11509,6 +11592,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11716,6 +11800,9 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="n">
+        <v>2834983</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11919,6 +12006,9 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="n">
+        <v>2834467</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12138,6 +12228,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12353,6 +12444,9 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="n">
+        <v>2835128</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12568,6 +12662,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12791,6 +12886,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13002,6 +13098,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13213,6 +13310,9 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="n">
+        <v>2835057</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13432,6 +13532,9 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="n">
+        <v>4513399</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13635,6 +13738,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13846,6 +13950,9 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="n">
+        <v>29405281</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14057,6 +14164,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14276,6 +14384,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14487,6 +14596,9 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="n">
+        <v>2830685</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14698,6 +14810,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14917,6 +15030,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15120,6 +15234,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15331,6 +15446,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15550,6 +15666,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15761,6 +15878,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15972,6 +16090,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16183,6 +16302,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16398,6 +16518,9 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="n">
+        <v>2827542</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16617,6 +16740,9 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="n">
+        <v>2826380</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16836,6 +16962,9 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="n">
+        <v>2827392</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17039,6 +17168,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17250,6 +17380,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17461,6 +17592,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17672,6 +17804,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17879,6 +18012,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18098,6 +18232,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18309,6 +18444,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18520,6 +18656,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18731,6 +18868,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18950,6 +19088,9 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="n">
+        <v>4500135</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19161,6 +19302,9 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="n">
+        <v>4502013</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19364,6 +19508,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19583,6 +19728,9 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="n">
+        <v>4501478</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19794,6 +19942,9 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="n">
+        <v>4501642</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20001,6 +20152,9 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="n">
+        <v>2865645</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20087,7 +20241,7 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Ragauskas, Art/0000-0002-3536-554X; Ragauskas, Arthur/0000-0002-3536-554X; </t>
+          <t>Ragauskas, Art/0000-0002-3536-554X; Ragauskas, Arthur/0000-0002-3536-554X;</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
@@ -20220,6 +20374,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20437,6 +20592,9 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="n">
+        <v>2911222</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20640,6 +20798,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20851,6 +21010,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21062,6 +21222,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21281,6 +21442,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21500,6 +21662,9 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="n">
+        <v>2743429</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21719,6 +21884,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21922,6 +22088,9 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="n">
+        <v>4522494</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22125,6 +22294,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22340,6 +22510,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22559,6 +22730,9 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="n">
+        <v>4510210</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22762,6 +22936,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22973,6 +23148,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23184,6 +23360,9 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="n">
+        <v>2820515</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23395,6 +23574,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23614,6 +23794,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23825,6 +24006,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
